--- a/_CIPW/CIPW/AREA1_Tr_J/QAPF_counts.xlsx
+++ b/_CIPW/CIPW/AREA1_Tr_J/QAPF_counts.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50179</v>
+        <v>50403</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
